--- a/PccuClub/Template/SDGs維護_template.xlsx
+++ b/PccuClub/Template/SDGs維護_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p10316871\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PushuData\2023\Project\Pccu\SRC3\PccuClub\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
